--- a/src/cab/perm/falcon.system.workflow.xlsx
+++ b/src/cab/perm/falcon.system.workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F290E9-2A25-0F4E-B573-C9B0AF2CB7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066FFBA6-27C9-6D43-BEBA-A54AB42C20C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70840" yWindow="520" windowWidth="38400" windowHeight="20420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="40180" yWindow="-15680" windowWidth="38400" windowHeight="20420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>active</t>
   </si>
@@ -179,6 +179,20 @@
   </si>
   <si>
     <t>读取待办单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee28b115-1345-40a7-bd10-bc61607eebbc</t>
+  </si>
+  <si>
+    <t>2e349fcf-5739-4bf5-a24b-e60ff0d4e4b1</t>
+  </si>
+  <si>
+    <t>保存草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量执行工作流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A5:K19"/>
+  <dimension ref="A5:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -728,7 +742,7 @@
     <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -748,7 +762,7 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -757,7 +771,7 @@
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
@@ -768,7 +782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:3">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -779,7 +793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -790,7 +804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:3">
       <c r="A11" s="12" t="s">
         <v>34</v>
       </c>
@@ -801,7 +815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:3">
       <c r="A12" s="12" t="s">
         <v>34</v>
       </c>
@@ -812,7 +826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:3">
       <c r="A13" s="12" t="s">
         <v>34</v>
       </c>
@@ -823,105 +837,127 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="9"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="9"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K20" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C19:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
